--- a/citybike_lima.xlsx
+++ b/citybike_lima.xlsx
@@ -513,7 +513,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2025-10-01T04:55:26.530477-05:00</t>
+          <t>2025-10-01T05:06:51.123559-05:00</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -548,7 +548,7 @@
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>noche</t>
+          <t>mañana</t>
         </is>
       </c>
       <c r="K2" t="inlineStr"/>
@@ -566,7 +566,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>2025-10-01T04:55:26.530477-05:00</t>
+          <t>2025-10-01T05:06:51.123559-05:00</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -601,7 +601,7 @@
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>noche</t>
+          <t>mañana</t>
         </is>
       </c>
       <c r="K3" t="inlineStr"/>
@@ -619,7 +619,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>2025-10-01T04:55:26.530477-05:00</t>
+          <t>2025-10-01T05:06:51.123559-05:00</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -654,7 +654,7 @@
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>noche</t>
+          <t>mañana</t>
         </is>
       </c>
       <c r="K4" t="inlineStr"/>
@@ -672,7 +672,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>2025-10-01T04:55:26.530477-05:00</t>
+          <t>2025-10-01T05:06:51.123559-05:00</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -707,7 +707,7 @@
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>noche</t>
+          <t>mañana</t>
         </is>
       </c>
       <c r="K5" t="inlineStr"/>
@@ -725,7 +725,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>2025-10-01T04:55:26.530477-05:00</t>
+          <t>2025-10-01T05:06:51.123559-05:00</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -760,7 +760,7 @@
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>noche</t>
+          <t>mañana</t>
         </is>
       </c>
       <c r="K6" t="inlineStr"/>
@@ -778,7 +778,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>2025-10-01T04:55:26.530477-05:00</t>
+          <t>2025-10-01T05:06:51.123559-05:00</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -813,7 +813,7 @@
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>noche</t>
+          <t>mañana</t>
         </is>
       </c>
       <c r="K7" t="inlineStr"/>
@@ -831,7 +831,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>2025-10-01T04:55:26.530477-05:00</t>
+          <t>2025-10-01T05:06:51.123559-05:00</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -866,7 +866,7 @@
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>noche</t>
+          <t>mañana</t>
         </is>
       </c>
       <c r="K8" t="inlineStr"/>
@@ -884,7 +884,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>2025-10-01T04:55:26.530477-05:00</t>
+          <t>2025-10-01T05:06:51.123559-05:00</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -919,7 +919,7 @@
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>noche</t>
+          <t>mañana</t>
         </is>
       </c>
       <c r="K9" t="inlineStr"/>
@@ -937,7 +937,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>2025-10-01T04:55:26.530477-05:00</t>
+          <t>2025-10-01T05:06:51.123559-05:00</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -972,7 +972,7 @@
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>noche</t>
+          <t>mañana</t>
         </is>
       </c>
       <c r="K10" t="inlineStr"/>
@@ -990,7 +990,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>2025-10-01T04:55:26.530477-05:00</t>
+          <t>2025-10-01T05:06:51.123559-05:00</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -1025,7 +1025,7 @@
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>noche</t>
+          <t>mañana</t>
         </is>
       </c>
       <c r="K11" t="inlineStr"/>
@@ -1043,7 +1043,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>2025-10-01T04:55:26.530477-05:00</t>
+          <t>2025-10-01T05:06:51.123559-05:00</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -1078,7 +1078,7 @@
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>noche</t>
+          <t>mañana</t>
         </is>
       </c>
       <c r="K12" t="inlineStr"/>
@@ -1096,7 +1096,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>2025-10-01T04:55:26.530477-05:00</t>
+          <t>2025-10-01T05:06:51.123559-05:00</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -1131,7 +1131,7 @@
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>noche</t>
+          <t>mañana</t>
         </is>
       </c>
       <c r="K13" t="inlineStr"/>
@@ -1149,7 +1149,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>2025-10-01T04:55:26.530477-05:00</t>
+          <t>2025-10-01T05:06:51.123559-05:00</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -1184,7 +1184,7 @@
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>noche</t>
+          <t>mañana</t>
         </is>
       </c>
       <c r="K14" t="inlineStr"/>
@@ -1202,7 +1202,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>2025-10-01T04:55:26.530477-05:00</t>
+          <t>2025-10-01T05:06:51.123559-05:00</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -1237,7 +1237,7 @@
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>noche</t>
+          <t>mañana</t>
         </is>
       </c>
       <c r="K15" t="inlineStr"/>
@@ -1255,7 +1255,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>2025-10-01T04:55:26.530477-05:00</t>
+          <t>2025-10-01T05:06:51.123559-05:00</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -1290,7 +1290,7 @@
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>noche</t>
+          <t>mañana</t>
         </is>
       </c>
       <c r="K16" t="inlineStr"/>
@@ -1308,7 +1308,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>2025-10-01T04:55:26.530477-05:00</t>
+          <t>2025-10-01T05:06:51.123559-05:00</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -1343,7 +1343,7 @@
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>noche</t>
+          <t>mañana</t>
         </is>
       </c>
       <c r="K17" t="inlineStr"/>
@@ -1361,7 +1361,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>2025-10-01T04:55:26.530477-05:00</t>
+          <t>2025-10-01T05:06:51.123559-05:00</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -1396,7 +1396,7 @@
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>noche</t>
+          <t>mañana</t>
         </is>
       </c>
       <c r="K18" t="inlineStr"/>
@@ -1414,7 +1414,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>2025-10-01T04:55:26.530477-05:00</t>
+          <t>2025-10-01T05:06:51.123559-05:00</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -1449,7 +1449,7 @@
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>noche</t>
+          <t>mañana</t>
         </is>
       </c>
       <c r="K19" t="inlineStr"/>
@@ -1467,7 +1467,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>2025-10-01T04:55:26.530477-05:00</t>
+          <t>2025-10-01T05:06:51.123559-05:00</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -1502,7 +1502,7 @@
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>noche</t>
+          <t>mañana</t>
         </is>
       </c>
       <c r="K20" t="inlineStr"/>
@@ -1520,7 +1520,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>2025-10-01T04:55:26.530477-05:00</t>
+          <t>2025-10-01T05:06:51.123559-05:00</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -1555,7 +1555,7 @@
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>noche</t>
+          <t>mañana</t>
         </is>
       </c>
       <c r="K21" t="inlineStr"/>
@@ -1573,7 +1573,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>2025-10-01T04:55:26.530477-05:00</t>
+          <t>2025-10-01T05:06:51.123559-05:00</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -1608,7 +1608,7 @@
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>noche</t>
+          <t>mañana</t>
         </is>
       </c>
       <c r="K22" t="inlineStr"/>
@@ -1626,7 +1626,7 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>2025-10-01T04:55:26.530477-05:00</t>
+          <t>2025-10-01T05:06:51.123559-05:00</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -1661,7 +1661,7 @@
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>noche</t>
+          <t>mañana</t>
         </is>
       </c>
       <c r="K23" t="inlineStr"/>
@@ -1679,7 +1679,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>2025-10-01T04:55:26.530477-05:00</t>
+          <t>2025-10-01T05:06:51.123559-05:00</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -1714,7 +1714,7 @@
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>noche</t>
+          <t>mañana</t>
         </is>
       </c>
       <c r="K24" t="inlineStr"/>
@@ -1732,7 +1732,7 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>2025-10-01T04:55:26.530477-05:00</t>
+          <t>2025-10-01T05:06:51.123559-05:00</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -1767,7 +1767,7 @@
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>noche</t>
+          <t>mañana</t>
         </is>
       </c>
       <c r="K25" t="inlineStr"/>
@@ -1785,7 +1785,7 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>2025-10-01T04:55:26.530477-05:00</t>
+          <t>2025-10-01T05:06:51.123559-05:00</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -1820,7 +1820,7 @@
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>noche</t>
+          <t>mañana</t>
         </is>
       </c>
       <c r="K26" t="inlineStr"/>
@@ -1838,7 +1838,7 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>2025-10-01T04:55:26.530477-05:00</t>
+          <t>2025-10-01T05:06:51.123559-05:00</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -1873,7 +1873,7 @@
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>noche</t>
+          <t>mañana</t>
         </is>
       </c>
       <c r="K27" t="inlineStr"/>
@@ -1891,7 +1891,7 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>2025-10-01T04:55:26.530477-05:00</t>
+          <t>2025-10-01T05:06:51.123559-05:00</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -1926,7 +1926,7 @@
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>noche</t>
+          <t>mañana</t>
         </is>
       </c>
       <c r="K28" t="inlineStr"/>
@@ -1944,7 +1944,7 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>2025-10-01T04:55:26.530477-05:00</t>
+          <t>2025-10-01T05:06:51.123559-05:00</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -1979,7 +1979,7 @@
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>noche</t>
+          <t>mañana</t>
         </is>
       </c>
       <c r="K29" t="inlineStr"/>
@@ -1997,7 +1997,7 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>2025-10-01T04:55:26.530477-05:00</t>
+          <t>2025-10-01T05:06:51.123559-05:00</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -2032,7 +2032,7 @@
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>noche</t>
+          <t>mañana</t>
         </is>
       </c>
       <c r="K30" t="inlineStr"/>
@@ -2050,7 +2050,7 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>2025-10-01T04:55:26.530477-05:00</t>
+          <t>2025-10-01T05:06:51.123559-05:00</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -2085,7 +2085,7 @@
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>noche</t>
+          <t>mañana</t>
         </is>
       </c>
       <c r="K31" t="inlineStr"/>
@@ -2103,7 +2103,7 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>2025-10-01T04:55:26.530477-05:00</t>
+          <t>2025-10-01T05:06:51.123559-05:00</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -2138,7 +2138,7 @@
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>noche</t>
+          <t>mañana</t>
         </is>
       </c>
       <c r="K32" t="inlineStr"/>
@@ -2156,7 +2156,7 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>2025-10-01T04:55:26.530477-05:00</t>
+          <t>2025-10-01T05:06:51.123559-05:00</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -2191,7 +2191,7 @@
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>noche</t>
+          <t>mañana</t>
         </is>
       </c>
       <c r="K33" t="inlineStr"/>
@@ -2209,7 +2209,7 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>2025-10-01T04:55:26.530477-05:00</t>
+          <t>2025-10-01T05:06:51.123559-05:00</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -2244,7 +2244,7 @@
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>noche</t>
+          <t>mañana</t>
         </is>
       </c>
       <c r="K34" t="inlineStr"/>
@@ -2262,7 +2262,7 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>2025-10-01T04:55:26.530477-05:00</t>
+          <t>2025-10-01T05:06:51.123559-05:00</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -2297,7 +2297,7 @@
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>noche</t>
+          <t>mañana</t>
         </is>
       </c>
       <c r="K35" t="inlineStr"/>
@@ -2315,7 +2315,7 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>2025-10-01T04:55:26.530477-05:00</t>
+          <t>2025-10-01T05:06:51.123559-05:00</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -2350,7 +2350,7 @@
       </c>
       <c r="J36" t="inlineStr">
         <is>
-          <t>noche</t>
+          <t>mañana</t>
         </is>
       </c>
       <c r="K36" t="inlineStr"/>
@@ -2368,7 +2368,7 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>2025-10-01T04:55:26.530477-05:00</t>
+          <t>2025-10-01T05:06:51.123559-05:00</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -2403,7 +2403,7 @@
       </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>noche</t>
+          <t>mañana</t>
         </is>
       </c>
       <c r="K37" t="inlineStr"/>
@@ -2421,7 +2421,7 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>2025-10-01T04:55:26.530477-05:00</t>
+          <t>2025-10-01T05:06:51.123559-05:00</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -2456,7 +2456,7 @@
       </c>
       <c r="J38" t="inlineStr">
         <is>
-          <t>noche</t>
+          <t>mañana</t>
         </is>
       </c>
       <c r="K38" t="inlineStr"/>
@@ -2474,7 +2474,7 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>2025-10-01T04:55:26.530477-05:00</t>
+          <t>2025-10-01T05:06:51.123559-05:00</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -2509,7 +2509,7 @@
       </c>
       <c r="J39" t="inlineStr">
         <is>
-          <t>noche</t>
+          <t>mañana</t>
         </is>
       </c>
       <c r="K39" t="inlineStr"/>
@@ -2527,7 +2527,7 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>2025-10-01T04:55:26.530477-05:00</t>
+          <t>2025-10-01T05:06:51.123559-05:00</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -2562,7 +2562,7 @@
       </c>
       <c r="J40" t="inlineStr">
         <is>
-          <t>noche</t>
+          <t>mañana</t>
         </is>
       </c>
       <c r="K40" t="inlineStr"/>
@@ -2580,7 +2580,7 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>2025-10-01T04:55:26.530477-05:00</t>
+          <t>2025-10-01T05:06:51.123559-05:00</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -2615,7 +2615,7 @@
       </c>
       <c r="J41" t="inlineStr">
         <is>
-          <t>noche</t>
+          <t>mañana</t>
         </is>
       </c>
       <c r="K41" t="inlineStr"/>
@@ -2633,7 +2633,7 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>2025-10-01T04:55:26.530477-05:00</t>
+          <t>2025-10-01T05:06:51.123559-05:00</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -2668,7 +2668,7 @@
       </c>
       <c r="J42" t="inlineStr">
         <is>
-          <t>noche</t>
+          <t>mañana</t>
         </is>
       </c>
       <c r="K42" t="inlineStr"/>
@@ -2686,7 +2686,7 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>2025-10-01T04:55:26.530477-05:00</t>
+          <t>2025-10-01T05:06:51.123559-05:00</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -2721,7 +2721,7 @@
       </c>
       <c r="J43" t="inlineStr">
         <is>
-          <t>noche</t>
+          <t>mañana</t>
         </is>
       </c>
       <c r="K43" t="inlineStr"/>
@@ -2739,7 +2739,7 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>2025-10-01T04:55:26.530477-05:00</t>
+          <t>2025-10-01T05:06:51.123559-05:00</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -2774,7 +2774,7 @@
       </c>
       <c r="J44" t="inlineStr">
         <is>
-          <t>noche</t>
+          <t>mañana</t>
         </is>
       </c>
       <c r="K44" t="inlineStr"/>
@@ -2792,7 +2792,7 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>2025-10-01T04:55:26.530477-05:00</t>
+          <t>2025-10-01T05:06:51.123559-05:00</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -2827,7 +2827,7 @@
       </c>
       <c r="J45" t="inlineStr">
         <is>
-          <t>noche</t>
+          <t>mañana</t>
         </is>
       </c>
       <c r="K45" t="inlineStr"/>
@@ -2845,7 +2845,7 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>2025-10-01T04:55:26.530477-05:00</t>
+          <t>2025-10-01T05:06:51.123559-05:00</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -2880,7 +2880,7 @@
       </c>
       <c r="J46" t="inlineStr">
         <is>
-          <t>noche</t>
+          <t>mañana</t>
         </is>
       </c>
       <c r="K46" t="inlineStr"/>
@@ -2898,7 +2898,7 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>2025-10-01T04:55:26.530477-05:00</t>
+          <t>2025-10-01T05:06:51.123559-05:00</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -2933,7 +2933,7 @@
       </c>
       <c r="J47" t="inlineStr">
         <is>
-          <t>noche</t>
+          <t>mañana</t>
         </is>
       </c>
       <c r="K47" t="inlineStr"/>
@@ -2951,7 +2951,7 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>2025-10-01T04:55:26.530477-05:00</t>
+          <t>2025-10-01T05:06:51.123559-05:00</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -2986,7 +2986,7 @@
       </c>
       <c r="J48" t="inlineStr">
         <is>
-          <t>noche</t>
+          <t>mañana</t>
         </is>
       </c>
       <c r="K48" t="inlineStr"/>
@@ -3004,7 +3004,7 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>2025-10-01T04:55:26.530477-05:00</t>
+          <t>2025-10-01T05:06:51.123559-05:00</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
@@ -3039,7 +3039,7 @@
       </c>
       <c r="J49" t="inlineStr">
         <is>
-          <t>noche</t>
+          <t>mañana</t>
         </is>
       </c>
       <c r="K49" t="inlineStr"/>
@@ -3057,7 +3057,7 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>2025-10-01T04:55:26.530477-05:00</t>
+          <t>2025-10-01T05:06:51.123559-05:00</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
@@ -3092,7 +3092,7 @@
       </c>
       <c r="J50" t="inlineStr">
         <is>
-          <t>noche</t>
+          <t>mañana</t>
         </is>
       </c>
       <c r="K50" t="inlineStr"/>
@@ -3110,7 +3110,7 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>2025-10-01T04:55:26.530477-05:00</t>
+          <t>2025-10-01T05:06:51.123559-05:00</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
@@ -3145,7 +3145,7 @@
       </c>
       <c r="J51" t="inlineStr">
         <is>
-          <t>noche</t>
+          <t>mañana</t>
         </is>
       </c>
       <c r="K51" t="inlineStr"/>
@@ -3163,7 +3163,7 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>2025-10-01T04:55:26.530477-05:00</t>
+          <t>2025-10-01T05:06:51.123559-05:00</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
@@ -3198,7 +3198,7 @@
       </c>
       <c r="J52" t="inlineStr">
         <is>
-          <t>noche</t>
+          <t>mañana</t>
         </is>
       </c>
       <c r="K52" t="inlineStr"/>
